--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Lamc2-Itga3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Lamc2-Itga3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,7 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.297160282827391</v>
+        <v>0.7944363333333334</v>
       </c>
       <c r="H2">
-        <v>0.297160282827391</v>
+        <v>2.383309</v>
       </c>
       <c r="I2">
-        <v>0.05358139749155454</v>
+        <v>0.1151936423286921</v>
       </c>
       <c r="J2">
-        <v>0.05358139749155454</v>
+        <v>0.1151936423286921</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.13707495566744</v>
+        <v>7.582021999999999</v>
       </c>
       <c r="N2">
-        <v>4.13707495566744</v>
+        <v>22.746066</v>
       </c>
       <c r="O2">
-        <v>0.5788032786529365</v>
+        <v>0.6904803268470485</v>
       </c>
       <c r="P2">
-        <v>0.5788032786529365</v>
+        <v>0.6904803268470485</v>
       </c>
       <c r="Q2">
-        <v>1.229374363904253</v>
+        <v>6.023433756932667</v>
       </c>
       <c r="R2">
-        <v>1.229374363904253</v>
+        <v>54.210903812394</v>
       </c>
       <c r="S2">
-        <v>0.03101308854291799</v>
+        <v>0.07953894380581733</v>
       </c>
       <c r="T2">
-        <v>0.03101308854291799</v>
+        <v>0.07953894380581733</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,433 +590,1797 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.297160282827391</v>
+        <v>0.7944363333333334</v>
       </c>
       <c r="H3">
-        <v>0.297160282827391</v>
+        <v>2.383309</v>
       </c>
       <c r="I3">
-        <v>0.05358139749155454</v>
+        <v>0.1151936423286921</v>
       </c>
       <c r="J3">
-        <v>0.05358139749155454</v>
+        <v>0.1151936423286921</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>3.0105607061342</v>
+        <v>0.1761233333333333</v>
       </c>
       <c r="N3">
-        <v>3.0105607061342</v>
+        <v>0.52837</v>
       </c>
       <c r="O3">
-        <v>0.4211967213470636</v>
+        <v>0.01603921708027116</v>
       </c>
       <c r="P3">
-        <v>0.4211967213470636</v>
+        <v>0.01603921708027116</v>
       </c>
       <c r="Q3">
-        <v>0.8946190709038687</v>
+        <v>0.1399187751477778</v>
       </c>
       <c r="R3">
-        <v>0.8946190709038687</v>
+        <v>1.25926897633</v>
       </c>
       <c r="S3">
-        <v>0.02256830894863655</v>
+        <v>0.001847615835577005</v>
       </c>
       <c r="T3">
-        <v>0.02256830894863655</v>
+        <v>0.001847615835577005</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.41034651236232</v>
+        <v>0.7944363333333334</v>
       </c>
       <c r="H4">
-        <v>4.41034651236232</v>
+        <v>2.383309</v>
       </c>
       <c r="I4">
-        <v>0.7952359154660033</v>
+        <v>0.1151936423286921</v>
       </c>
       <c r="J4">
-        <v>0.7952359154660033</v>
+        <v>0.1151936423286921</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>4.13707495566744</v>
+        <v>0.08017533333333333</v>
       </c>
       <c r="N4">
-        <v>4.13707495566744</v>
+        <v>0.240526</v>
       </c>
       <c r="O4">
-        <v>0.5788032786529365</v>
+        <v>0.007301415158788918</v>
       </c>
       <c r="P4">
-        <v>0.5788032786529365</v>
+        <v>0.007301415158788917</v>
       </c>
       <c r="Q4">
-        <v>18.24593410210939</v>
+        <v>0.06369419783711112</v>
       </c>
       <c r="R4">
-        <v>18.24593410210939</v>
+        <v>0.5732477805340001</v>
       </c>
       <c r="S4">
-        <v>0.4602851551742921</v>
+        <v>0.0008410766062948214</v>
       </c>
       <c r="T4">
-        <v>0.4602851551742921</v>
+        <v>0.0008410766062948213</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.41034651236232</v>
+        <v>0.7944363333333334</v>
       </c>
       <c r="H5">
-        <v>4.41034651236232</v>
+        <v>2.383309</v>
       </c>
       <c r="I5">
-        <v>0.7952359154660033</v>
+        <v>0.1151936423286921</v>
       </c>
       <c r="J5">
-        <v>0.7952359154660033</v>
+        <v>0.1151936423286921</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>3.0105607061342</v>
+        <v>0.116695</v>
       </c>
       <c r="N5">
-        <v>3.0105607061342</v>
+        <v>0.350085</v>
       </c>
       <c r="O5">
-        <v>0.4211967213470636</v>
+        <v>0.01062719176248979</v>
       </c>
       <c r="P5">
-        <v>0.4211967213470636</v>
+        <v>0.01062719176248978</v>
       </c>
       <c r="Q5">
-        <v>13.27761591055401</v>
+        <v>0.09270674791833333</v>
       </c>
       <c r="R5">
-        <v>13.27761591055401</v>
+        <v>0.834360731265</v>
       </c>
       <c r="S5">
-        <v>0.3349507602917112</v>
+        <v>0.001224184926846672</v>
       </c>
       <c r="T5">
-        <v>0.3349507602917112</v>
+        <v>0.001224184926846671</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.0557050593709434</v>
+        <v>0.7944363333333334</v>
       </c>
       <c r="H6">
-        <v>0.0557050593709434</v>
+        <v>2.383309</v>
       </c>
       <c r="I6">
-        <v>0.01004425928002933</v>
+        <v>0.1151936423286921</v>
       </c>
       <c r="J6">
-        <v>0.01004425928002933</v>
+        <v>0.1151936423286921</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.13707495566744</v>
+        <v>3.025778</v>
       </c>
       <c r="N6">
-        <v>4.13707495566744</v>
+        <v>9.077334</v>
       </c>
       <c r="O6">
-        <v>0.5788032786529365</v>
+        <v>0.2755518491514017</v>
       </c>
       <c r="P6">
-        <v>0.5788032786529365</v>
+        <v>0.2755518491514017</v>
       </c>
       <c r="Q6">
-        <v>0.2304560060274978</v>
+        <v>2.403787979800667</v>
       </c>
       <c r="R6">
-        <v>0.2304560060274978</v>
+        <v>21.634091818206</v>
       </c>
       <c r="S6">
-        <v>0.005813650202921161</v>
+        <v>0.0317418211541563</v>
       </c>
       <c r="T6">
-        <v>0.005813650202921161</v>
+        <v>0.03174182115415629</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.0557050593709434</v>
+        <v>4.665910666666666</v>
       </c>
       <c r="H7">
-        <v>0.0557050593709434</v>
+        <v>13.997732</v>
       </c>
       <c r="I7">
-        <v>0.01004425928002933</v>
+        <v>0.6765592432290096</v>
       </c>
       <c r="J7">
-        <v>0.01004425928002933</v>
+        <v>0.6765592432290097</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.0105607061342</v>
+        <v>7.582021999999999</v>
       </c>
       <c r="N7">
-        <v>3.0105607061342</v>
+        <v>22.746066</v>
       </c>
       <c r="O7">
-        <v>0.4211967213470636</v>
+        <v>0.6904803268470485</v>
       </c>
       <c r="P7">
-        <v>0.4211967213470636</v>
+        <v>0.6904803268470485</v>
       </c>
       <c r="Q7">
-        <v>0.1677034628750349</v>
+        <v>35.37703732470133</v>
       </c>
       <c r="R7">
-        <v>0.1677034628750349</v>
+        <v>318.393335922312</v>
       </c>
       <c r="S7">
-        <v>0.004230609077108173</v>
+        <v>0.4671508473961584</v>
       </c>
       <c r="T7">
-        <v>0.004230609077108173</v>
+        <v>0.4671508473961584</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.782748063230389</v>
+        <v>4.665910666666666</v>
       </c>
       <c r="H8">
-        <v>0.782748063230389</v>
+        <v>13.997732</v>
       </c>
       <c r="I8">
-        <v>0.141138427762413</v>
+        <v>0.6765592432290096</v>
       </c>
       <c r="J8">
-        <v>0.141138427762413</v>
+        <v>0.6765592432290097</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>4.13707495566744</v>
+        <v>0.1761233333333333</v>
       </c>
       <c r="N8">
-        <v>4.13707495566744</v>
+        <v>0.52837</v>
       </c>
       <c r="O8">
-        <v>0.5788032786529365</v>
+        <v>0.01603921708027116</v>
       </c>
       <c r="P8">
-        <v>0.5788032786529365</v>
+        <v>0.01603921708027116</v>
       </c>
       <c r="Q8">
-        <v>3.238287408987637</v>
+        <v>0.8217757396488887</v>
       </c>
       <c r="R8">
-        <v>3.238287408987637</v>
+        <v>7.39598165684</v>
       </c>
       <c r="S8">
-        <v>0.08169138473280528</v>
+        <v>0.01085148056981406</v>
       </c>
       <c r="T8">
-        <v>0.08169138473280528</v>
+        <v>0.01085148056981406</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.782748063230389</v>
+        <v>4.665910666666666</v>
       </c>
       <c r="H9">
-        <v>0.782748063230389</v>
+        <v>13.997732</v>
       </c>
       <c r="I9">
-        <v>0.141138427762413</v>
+        <v>0.6765592432290096</v>
       </c>
       <c r="J9">
-        <v>0.141138427762413</v>
+        <v>0.6765592432290097</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>3.0105607061342</v>
+        <v>0.08017533333333333</v>
       </c>
       <c r="N9">
-        <v>3.0105607061342</v>
+        <v>0.240526</v>
       </c>
       <c r="O9">
-        <v>0.4211967213470636</v>
+        <v>0.007301415158788918</v>
       </c>
       <c r="P9">
-        <v>0.4211967213470636</v>
+        <v>0.007301415158788917</v>
       </c>
       <c r="Q9">
-        <v>2.356510561964057</v>
+        <v>0.3740909430035555</v>
       </c>
       <c r="R9">
-        <v>2.356510561964057</v>
+        <v>3.366818487031999</v>
       </c>
       <c r="S9">
-        <v>0.05944704302960774</v>
+        <v>0.00493983991433105</v>
       </c>
       <c r="T9">
-        <v>0.05944704302960774</v>
+        <v>0.00493983991433105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4.665910666666666</v>
+      </c>
+      <c r="H10">
+        <v>13.997732</v>
+      </c>
+      <c r="I10">
+        <v>0.6765592432290096</v>
+      </c>
+      <c r="J10">
+        <v>0.6765592432290097</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.116695</v>
+      </c>
+      <c r="N10">
+        <v>0.350085</v>
+      </c>
+      <c r="O10">
+        <v>0.01062719176248979</v>
+      </c>
+      <c r="P10">
+        <v>0.01062719176248978</v>
+      </c>
+      <c r="Q10">
+        <v>0.5444884452466666</v>
+      </c>
+      <c r="R10">
+        <v>4.900396007219999</v>
+      </c>
+      <c r="S10">
+        <v>0.007189924816479654</v>
+      </c>
+      <c r="T10">
+        <v>0.007189924816479654</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>4.665910666666666</v>
+      </c>
+      <c r="H11">
+        <v>13.997732</v>
+      </c>
+      <c r="I11">
+        <v>0.6765592432290096</v>
+      </c>
+      <c r="J11">
+        <v>0.6765592432290097</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3.025778</v>
+      </c>
+      <c r="N11">
+        <v>9.077334</v>
+      </c>
+      <c r="O11">
+        <v>0.2755518491514017</v>
+      </c>
+      <c r="P11">
+        <v>0.2755518491514017</v>
+      </c>
+      <c r="Q11">
+        <v>14.11800984516533</v>
+      </c>
+      <c r="R11">
+        <v>127.062088606488</v>
+      </c>
+      <c r="S11">
+        <v>0.1864271505322266</v>
+      </c>
+      <c r="T11">
+        <v>0.1864271505322266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.001148666666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.003446</v>
+      </c>
+      <c r="I12">
+        <v>0.0001665572074224001</v>
+      </c>
+      <c r="J12">
+        <v>0.0001665572074224001</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>7.582021999999999</v>
+      </c>
+      <c r="N12">
+        <v>22.746066</v>
+      </c>
+      <c r="O12">
+        <v>0.6904803268470485</v>
+      </c>
+      <c r="P12">
+        <v>0.6904803268470485</v>
+      </c>
+      <c r="Q12">
+        <v>0.008709215937333332</v>
+      </c>
+      <c r="R12">
+        <v>0.078382943436</v>
+      </c>
+      <c r="S12">
+        <v>0.0001150044750197505</v>
+      </c>
+      <c r="T12">
+        <v>0.0001150044750197505</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.001148666666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.003446</v>
+      </c>
+      <c r="I13">
+        <v>0.0001665572074224001</v>
+      </c>
+      <c r="J13">
+        <v>0.0001665572074224001</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.1761233333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.52837</v>
+      </c>
+      <c r="O13">
+        <v>0.01603921708027116</v>
+      </c>
+      <c r="P13">
+        <v>0.01603921708027116</v>
+      </c>
+      <c r="Q13">
+        <v>0.0002023070022222222</v>
+      </c>
+      <c r="R13">
+        <v>0.00182076302</v>
+      </c>
+      <c r="S13">
+        <v>2.671447206131625E-06</v>
+      </c>
+      <c r="T13">
+        <v>2.671447206131626E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.001148666666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.003446</v>
+      </c>
+      <c r="I14">
+        <v>0.0001665572074224001</v>
+      </c>
+      <c r="J14">
+        <v>0.0001665572074224001</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.08017533333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.240526</v>
+      </c>
+      <c r="O14">
+        <v>0.007301415158788918</v>
+      </c>
+      <c r="P14">
+        <v>0.007301415158788917</v>
+      </c>
+      <c r="Q14">
+        <v>9.209473288888888E-05</v>
+      </c>
+      <c r="R14">
+        <v>0.0008288525959999999</v>
+      </c>
+      <c r="S14">
+        <v>1.216103319079462E-06</v>
+      </c>
+      <c r="T14">
+        <v>1.216103319079462E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.001148666666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.003446</v>
+      </c>
+      <c r="I15">
+        <v>0.0001665572074224001</v>
+      </c>
+      <c r="J15">
+        <v>0.0001665572074224001</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.116695</v>
+      </c>
+      <c r="N15">
+        <v>0.350085</v>
+      </c>
+      <c r="O15">
+        <v>0.01062719176248979</v>
+      </c>
+      <c r="P15">
+        <v>0.01062719176248978</v>
+      </c>
+      <c r="Q15">
+        <v>0.0001340436566666667</v>
+      </c>
+      <c r="R15">
+        <v>0.00120639291</v>
+      </c>
+      <c r="S15">
+        <v>1.770035382702633E-06</v>
+      </c>
+      <c r="T15">
+        <v>1.770035382702633E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.001148666666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.003446</v>
+      </c>
+      <c r="I16">
+        <v>0.0001665572074224001</v>
+      </c>
+      <c r="J16">
+        <v>0.0001665572074224001</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.025778</v>
+      </c>
+      <c r="N16">
+        <v>9.077334</v>
+      </c>
+      <c r="O16">
+        <v>0.2755518491514017</v>
+      </c>
+      <c r="P16">
+        <v>0.2755518491514017</v>
+      </c>
+      <c r="Q16">
+        <v>0.003475610329333333</v>
+      </c>
+      <c r="R16">
+        <v>0.031280492964</v>
+      </c>
+      <c r="S16">
+        <v>4.589514649473592E-05</v>
+      </c>
+      <c r="T16">
+        <v>4.589514649473592E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.152494</v>
+      </c>
+      <c r="H17">
+        <v>0.4574820000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.02211170178932515</v>
+      </c>
+      <c r="J17">
+        <v>0.02211170178932515</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>7.582021999999999</v>
+      </c>
+      <c r="N17">
+        <v>22.746066</v>
+      </c>
+      <c r="O17">
+        <v>0.6904803268470485</v>
+      </c>
+      <c r="P17">
+        <v>0.6904803268470485</v>
+      </c>
+      <c r="Q17">
+        <v>1.156212862868</v>
+      </c>
+      <c r="R17">
+        <v>10.405915765812</v>
+      </c>
+      <c r="S17">
+        <v>0.01526769507863769</v>
+      </c>
+      <c r="T17">
+        <v>0.01526769507863769</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.152494</v>
+      </c>
+      <c r="H18">
+        <v>0.4574820000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.02211170178932515</v>
+      </c>
+      <c r="J18">
+        <v>0.02211170178932515</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.1761233333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.52837</v>
+      </c>
+      <c r="O18">
+        <v>0.01603921708027116</v>
+      </c>
+      <c r="P18">
+        <v>0.01603921708027116</v>
+      </c>
+      <c r="Q18">
+        <v>0.02685775159333334</v>
+      </c>
+      <c r="R18">
+        <v>0.24171976434</v>
+      </c>
+      <c r="S18">
+        <v>0.0003546543850132062</v>
+      </c>
+      <c r="T18">
+        <v>0.0003546543850132062</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.152494</v>
+      </c>
+      <c r="H19">
+        <v>0.4574820000000001</v>
+      </c>
+      <c r="I19">
+        <v>0.02211170178932515</v>
+      </c>
+      <c r="J19">
+        <v>0.02211170178932515</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.08017533333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.240526</v>
+      </c>
+      <c r="O19">
+        <v>0.007301415158788918</v>
+      </c>
+      <c r="P19">
+        <v>0.007301415158788917</v>
+      </c>
+      <c r="Q19">
+        <v>0.01222625728133333</v>
+      </c>
+      <c r="R19">
+        <v>0.110036315532</v>
+      </c>
+      <c r="S19">
+        <v>0.0001614467146311987</v>
+      </c>
+      <c r="T19">
+        <v>0.0001614467146311987</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.152494</v>
+      </c>
+      <c r="H20">
+        <v>0.4574820000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.02211170178932515</v>
+      </c>
+      <c r="J20">
+        <v>0.02211170178932515</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.116695</v>
+      </c>
+      <c r="N20">
+        <v>0.350085</v>
+      </c>
+      <c r="O20">
+        <v>0.01062719176248979</v>
+      </c>
+      <c r="P20">
+        <v>0.01062719176248978</v>
+      </c>
+      <c r="Q20">
+        <v>0.01779528733</v>
+      </c>
+      <c r="R20">
+        <v>0.16015758597</v>
+      </c>
+      <c r="S20">
+        <v>0.0002349852951101469</v>
+      </c>
+      <c r="T20">
+        <v>0.0002349852951101468</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.152494</v>
+      </c>
+      <c r="H21">
+        <v>0.4574820000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.02211170178932515</v>
+      </c>
+      <c r="J21">
+        <v>0.02211170178932515</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.025778</v>
+      </c>
+      <c r="N21">
+        <v>9.077334</v>
+      </c>
+      <c r="O21">
+        <v>0.2755518491514017</v>
+      </c>
+      <c r="P21">
+        <v>0.2755518491514017</v>
+      </c>
+      <c r="Q21">
+        <v>0.4614129903320001</v>
+      </c>
+      <c r="R21">
+        <v>4.152716912988001</v>
+      </c>
+      <c r="S21">
+        <v>0.006092920315932903</v>
+      </c>
+      <c r="T21">
+        <v>0.006092920315932902</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.0003876666666666666</v>
+      </c>
+      <c r="H22">
+        <v>0.001163</v>
+      </c>
+      <c r="I22">
+        <v>5.621184916780363E-05</v>
+      </c>
+      <c r="J22">
+        <v>5.621184916780364E-05</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>7.582021999999999</v>
+      </c>
+      <c r="N22">
+        <v>22.746066</v>
+      </c>
+      <c r="O22">
+        <v>0.6904803268470485</v>
+      </c>
+      <c r="P22">
+        <v>0.6904803268470485</v>
+      </c>
+      <c r="Q22">
+        <v>0.002939297195333333</v>
+      </c>
+      <c r="R22">
+        <v>0.026453674758</v>
+      </c>
+      <c r="S22">
+        <v>3.881317598606204E-05</v>
+      </c>
+      <c r="T22">
+        <v>3.881317598606205E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.0003876666666666666</v>
+      </c>
+      <c r="H23">
+        <v>0.001163</v>
+      </c>
+      <c r="I23">
+        <v>5.621184916780363E-05</v>
+      </c>
+      <c r="J23">
+        <v>5.621184916780364E-05</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.1761233333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.52837</v>
+      </c>
+      <c r="O23">
+        <v>0.01603921708027116</v>
+      </c>
+      <c r="P23">
+        <v>0.01603921708027116</v>
+      </c>
+      <c r="Q23">
+        <v>6.827714555555555E-05</v>
+      </c>
+      <c r="R23">
+        <v>0.00061449431</v>
+      </c>
+      <c r="S23">
+        <v>9.01594051285862E-07</v>
+      </c>
+      <c r="T23">
+        <v>9.015940512858621E-07</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.0003876666666666666</v>
+      </c>
+      <c r="H24">
+        <v>0.001163</v>
+      </c>
+      <c r="I24">
+        <v>5.621184916780363E-05</v>
+      </c>
+      <c r="J24">
+        <v>5.621184916780364E-05</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.08017533333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.240526</v>
+      </c>
+      <c r="O24">
+        <v>0.007301415158788918</v>
+      </c>
+      <c r="P24">
+        <v>0.007301415158788917</v>
+      </c>
+      <c r="Q24">
+        <v>3.108130422222222E-05</v>
+      </c>
+      <c r="R24">
+        <v>0.000279731738</v>
+      </c>
+      <c r="S24">
+        <v>4.104260476173577E-07</v>
+      </c>
+      <c r="T24">
+        <v>4.104260476173577E-07</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.0003876666666666666</v>
+      </c>
+      <c r="H25">
+        <v>0.001163</v>
+      </c>
+      <c r="I25">
+        <v>5.621184916780363E-05</v>
+      </c>
+      <c r="J25">
+        <v>5.621184916780364E-05</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.116695</v>
+      </c>
+      <c r="N25">
+        <v>0.350085</v>
+      </c>
+      <c r="O25">
+        <v>0.01062719176248979</v>
+      </c>
+      <c r="P25">
+        <v>0.01062719176248978</v>
+      </c>
+      <c r="Q25">
+        <v>4.523876166666666E-05</v>
+      </c>
+      <c r="R25">
+        <v>0.000407148855</v>
+      </c>
+      <c r="S25">
+        <v>5.973741004304011E-07</v>
+      </c>
+      <c r="T25">
+        <v>5.973741004304011E-07</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.0003876666666666666</v>
+      </c>
+      <c r="H26">
+        <v>0.001163</v>
+      </c>
+      <c r="I26">
+        <v>5.621184916780363E-05</v>
+      </c>
+      <c r="J26">
+        <v>5.621184916780364E-05</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>3.025778</v>
+      </c>
+      <c r="N26">
+        <v>9.077334</v>
+      </c>
+      <c r="O26">
+        <v>0.2755518491514017</v>
+      </c>
+      <c r="P26">
+        <v>0.2755518491514017</v>
+      </c>
+      <c r="Q26">
+        <v>0.001172993271333333</v>
+      </c>
+      <c r="R26">
+        <v>0.010556939442</v>
+      </c>
+      <c r="S26">
+        <v>1.548927898240797E-05</v>
+      </c>
+      <c r="T26">
+        <v>1.548927898240797E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.282152</v>
+      </c>
+      <c r="H27">
+        <v>3.846456</v>
+      </c>
+      <c r="I27">
+        <v>0.1859126435963829</v>
+      </c>
+      <c r="J27">
+        <v>0.1859126435963829</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>7.582021999999999</v>
+      </c>
+      <c r="N27">
+        <v>22.746066</v>
+      </c>
+      <c r="O27">
+        <v>0.6904803268470485</v>
+      </c>
+      <c r="P27">
+        <v>0.6904803268470485</v>
+      </c>
+      <c r="Q27">
+        <v>9.721304671344001</v>
+      </c>
+      <c r="R27">
+        <v>87.49174204209601</v>
+      </c>
+      <c r="S27">
+        <v>0.1283690229154293</v>
+      </c>
+      <c r="T27">
+        <v>0.1283690229154293</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.282152</v>
+      </c>
+      <c r="H28">
+        <v>3.846456</v>
+      </c>
+      <c r="I28">
+        <v>0.1859126435963829</v>
+      </c>
+      <c r="J28">
+        <v>0.1859126435963829</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.1761233333333333</v>
+      </c>
+      <c r="N28">
+        <v>0.52837</v>
+      </c>
+      <c r="O28">
+        <v>0.01603921708027116</v>
+      </c>
+      <c r="P28">
+        <v>0.01603921708027116</v>
+      </c>
+      <c r="Q28">
+        <v>0.22581688408</v>
+      </c>
+      <c r="R28">
+        <v>2.03235195672</v>
+      </c>
+      <c r="S28">
+        <v>0.002981893248609469</v>
+      </c>
+      <c r="T28">
+        <v>0.002981893248609469</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.282152</v>
+      </c>
+      <c r="H29">
+        <v>3.846456</v>
+      </c>
+      <c r="I29">
+        <v>0.1859126435963829</v>
+      </c>
+      <c r="J29">
+        <v>0.1859126435963829</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.08017533333333333</v>
+      </c>
+      <c r="N29">
+        <v>0.240526</v>
+      </c>
+      <c r="O29">
+        <v>0.007301415158788918</v>
+      </c>
+      <c r="P29">
+        <v>0.007301415158788917</v>
+      </c>
+      <c r="Q29">
+        <v>0.102796963984</v>
+      </c>
+      <c r="R29">
+        <v>0.925172675856</v>
+      </c>
+      <c r="S29">
+        <v>0.001357425394165152</v>
+      </c>
+      <c r="T29">
+        <v>0.001357425394165152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.282152</v>
+      </c>
+      <c r="H30">
+        <v>3.846456</v>
+      </c>
+      <c r="I30">
+        <v>0.1859126435963829</v>
+      </c>
+      <c r="J30">
+        <v>0.1859126435963829</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>0.116695</v>
+      </c>
+      <c r="N30">
+        <v>0.350085</v>
+      </c>
+      <c r="O30">
+        <v>0.01062719176248979</v>
+      </c>
+      <c r="P30">
+        <v>0.01062719176248978</v>
+      </c>
+      <c r="Q30">
+        <v>0.14962072764</v>
+      </c>
+      <c r="R30">
+        <v>1.34658654876</v>
+      </c>
+      <c r="S30">
+        <v>0.00197572931457018</v>
+      </c>
+      <c r="T30">
+        <v>0.00197572931457018</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.282152</v>
+      </c>
+      <c r="H31">
+        <v>3.846456</v>
+      </c>
+      <c r="I31">
+        <v>0.1859126435963829</v>
+      </c>
+      <c r="J31">
+        <v>0.1859126435963829</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>3.025778</v>
+      </c>
+      <c r="N31">
+        <v>9.077334</v>
+      </c>
+      <c r="O31">
+        <v>0.2755518491514017</v>
+      </c>
+      <c r="P31">
+        <v>0.2755518491514017</v>
+      </c>
+      <c r="Q31">
+        <v>3.879507314256001</v>
+      </c>
+      <c r="R31">
+        <v>34.915565828304</v>
+      </c>
+      <c r="S31">
+        <v>0.05122857272360883</v>
+      </c>
+      <c r="T31">
+        <v>0.05122857272360881</v>
       </c>
     </row>
   </sheetData>
